--- a/dataanalysis/data/predictions/1400/08151403_1405.xlsx
+++ b/dataanalysis/data/predictions/1400/08151403_1405.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="167">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-15</t>
   </si>
   <si>
@@ -512,12 +515,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -875,13 +872,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH83"/>
+  <dimension ref="A1:AI83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -984,19 +981,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300033</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>18.14</v>
@@ -1014,7 +1014,7 @@
         <v>918591.1800000001</v>
       </c>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1055,8 +1055,23 @@
       <c r="W2">
         <v>-0.05</v>
       </c>
+      <c r="X2">
+        <v>10.27</v>
+      </c>
+      <c r="Y2">
+        <v>426.88</v>
+      </c>
+      <c r="Z2">
+        <v>14.42</v>
+      </c>
       <c r="AC2" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>1</v>
@@ -1064,22 +1079,25 @@
       <c r="AG2">
         <v>15.74367046356201</v>
       </c>
-      <c r="AH2" t="s">
-        <v>166</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300145</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>8.960000000000001</v>
@@ -1097,7 +1115,7 @@
         <v>187325.07</v>
       </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -1138,8 +1156,23 @@
       <c r="W3">
         <v>0.55</v>
       </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>5.84</v>
+      </c>
+      <c r="Z3">
+        <v>6.76</v>
+      </c>
       <c r="AC3" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1147,22 +1180,25 @@
       <c r="AG3">
         <v>-3.613962411880493</v>
       </c>
-      <c r="AH3" t="s">
-        <v>166</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300188</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-4.93</v>
@@ -1180,7 +1216,7 @@
         <v>204474.3</v>
       </c>
       <c r="J4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1221,8 +1257,23 @@
       <c r="W4">
         <v>0.16</v>
       </c>
+      <c r="X4">
+        <v>-0.27</v>
+      </c>
+      <c r="Y4">
+        <v>19.75</v>
+      </c>
+      <c r="Z4">
+        <v>8.880000000000001</v>
+      </c>
       <c r="AC4" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1230,22 +1281,25 @@
       <c r="AG4">
         <v>-3.510294198989868</v>
       </c>
-      <c r="AH4" t="s">
-        <v>166</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300196</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>6.5</v>
@@ -1263,7 +1317,7 @@
         <v>48448.05</v>
       </c>
       <c r="J5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1304,8 +1358,23 @@
       <c r="W5">
         <v>0.28</v>
       </c>
+      <c r="X5">
+        <v>3.68</v>
+      </c>
+      <c r="Y5">
+        <v>17.55</v>
+      </c>
+      <c r="Z5">
+        <v>7.14</v>
+      </c>
       <c r="AC5" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1313,22 +1382,25 @@
       <c r="AG5">
         <v>3.126025438308716</v>
       </c>
-      <c r="AH5" t="s">
-        <v>166</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300199</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>4.84</v>
@@ -1346,7 +1418,7 @@
         <v>333355.65</v>
       </c>
       <c r="J6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K6">
         <v>14</v>
@@ -1387,8 +1459,23 @@
       <c r="W6">
         <v>0.05</v>
       </c>
+      <c r="X6">
+        <v>14.77</v>
+      </c>
+      <c r="Y6">
+        <v>30.47</v>
+      </c>
+      <c r="Z6">
+        <v>17.19</v>
+      </c>
       <c r="AC6" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1396,22 +1483,25 @@
       <c r="AG6">
         <v>0.6772530078887939</v>
       </c>
-      <c r="AH6" t="s">
-        <v>166</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300213</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>2.25</v>
@@ -1429,7 +1519,7 @@
         <v>55032.5</v>
       </c>
       <c r="J7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1470,8 +1560,23 @@
       <c r="W7">
         <v>0.75</v>
       </c>
+      <c r="X7">
+        <v>-0.73</v>
+      </c>
+      <c r="Y7">
+        <v>11.31</v>
+      </c>
+      <c r="Z7">
+        <v>3.86</v>
+      </c>
       <c r="AC7" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1479,22 +1584,25 @@
       <c r="AG7">
         <v>2.374856472015381</v>
       </c>
-      <c r="AH7" t="s">
-        <v>166</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300214</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>1.76</v>
@@ -1512,7 +1620,7 @@
         <v>45982.87</v>
       </c>
       <c r="J8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1553,8 +1661,23 @@
       <c r="W8">
         <v>0.85</v>
       </c>
+      <c r="X8">
+        <v>1.78</v>
+      </c>
+      <c r="Y8">
+        <v>8.98</v>
+      </c>
+      <c r="Z8">
+        <v>3.7</v>
+      </c>
       <c r="AC8" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1562,22 +1685,25 @@
       <c r="AG8">
         <v>1.250024676322937</v>
       </c>
-      <c r="AH8" t="s">
-        <v>166</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300224</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>4.55</v>
@@ -1595,7 +1721,7 @@
         <v>148202.28</v>
       </c>
       <c r="J9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -1636,8 +1762,23 @@
       <c r="W9">
         <v>-0.13</v>
       </c>
+      <c r="X9">
+        <v>4.41</v>
+      </c>
+      <c r="Y9">
+        <v>19.5</v>
+      </c>
+      <c r="Z9">
+        <v>6.15</v>
+      </c>
       <c r="AC9" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1645,22 +1786,25 @@
       <c r="AG9">
         <v>2.520545959472656</v>
       </c>
-      <c r="AH9" t="s">
-        <v>166</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300304</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>1.97</v>
@@ -1678,7 +1822,7 @@
         <v>51340.08</v>
       </c>
       <c r="J10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K10">
         <v>5</v>
@@ -1719,8 +1863,23 @@
       <c r="W10">
         <v>-1.17</v>
       </c>
+      <c r="X10">
+        <v>-2.54</v>
+      </c>
+      <c r="Y10">
+        <v>13.29</v>
+      </c>
+      <c r="Z10">
+        <v>2.63</v>
+      </c>
       <c r="AC10" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -1728,22 +1887,25 @@
       <c r="AG10">
         <v>17.5264720916748</v>
       </c>
-      <c r="AH10" t="s">
-        <v>166</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300322</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>2.46</v>
@@ -1761,7 +1923,7 @@
         <v>215224.93</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K11">
         <v>15</v>
@@ -1802,8 +1964,23 @@
       <c r="W11">
         <v>1.33</v>
       </c>
+      <c r="X11">
+        <v>4.63</v>
+      </c>
+      <c r="Y11">
+        <v>29.39</v>
+      </c>
+      <c r="Z11">
+        <v>5.49</v>
+      </c>
       <c r="AC11" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1811,22 +1988,25 @@
       <c r="AG11">
         <v>4.381564140319824</v>
       </c>
-      <c r="AH11" t="s">
-        <v>166</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300368</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>12.54</v>
@@ -1844,7 +2024,7 @@
         <v>211509.88</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K12">
         <v>6</v>
@@ -1885,8 +2065,23 @@
       <c r="W12">
         <v>0.33</v>
       </c>
+      <c r="X12">
+        <v>0.36</v>
+      </c>
+      <c r="Y12">
+        <v>18.38</v>
+      </c>
+      <c r="Z12">
+        <v>7.23</v>
+      </c>
       <c r="AC12" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1894,22 +2089,25 @@
       <c r="AG12">
         <v>-0.8886151909828186</v>
       </c>
-      <c r="AH12" t="s">
-        <v>166</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300398</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>4.79</v>
@@ -1927,7 +2125,7 @@
         <v>148275.7</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1968,8 +2166,23 @@
       <c r="W13">
         <v>-0.28</v>
       </c>
+      <c r="X13">
+        <v>5.07</v>
+      </c>
+      <c r="Y13">
+        <v>25.67</v>
+      </c>
+      <c r="Z13">
+        <v>8.630000000000001</v>
+      </c>
       <c r="AC13" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1977,22 +2190,25 @@
       <c r="AG13">
         <v>3.470826148986816</v>
       </c>
-      <c r="AH13" t="s">
-        <v>166</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300400</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>6.41</v>
@@ -2010,7 +2226,7 @@
         <v>110118.64</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -2051,8 +2267,23 @@
       <c r="W14">
         <v>-0.02</v>
       </c>
+      <c r="X14">
+        <v>-1.64</v>
+      </c>
+      <c r="Y14">
+        <v>28.17</v>
+      </c>
+      <c r="Z14">
+        <v>6.7</v>
+      </c>
       <c r="AC14" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2060,22 +2291,25 @@
       <c r="AG14">
         <v>-4.290296077728271</v>
       </c>
-      <c r="AH14" t="s">
-        <v>166</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300430</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>1.9</v>
@@ -2093,7 +2327,7 @@
         <v>92210.82000000001</v>
       </c>
       <c r="J15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -2134,8 +2368,23 @@
       <c r="W15">
         <v>0.02</v>
       </c>
+      <c r="X15">
+        <v>-1.59</v>
+      </c>
+      <c r="Y15">
+        <v>24.7</v>
+      </c>
+      <c r="Z15">
+        <v>0.08</v>
+      </c>
       <c r="AC15" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2143,22 +2392,25 @@
       <c r="AG15">
         <v>5.221906185150146</v>
       </c>
-      <c r="AH15" t="s">
-        <v>166</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300436</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>14.71</v>
@@ -2176,7 +2428,7 @@
         <v>214146.21</v>
       </c>
       <c r="J16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K16">
         <v>32</v>
@@ -2217,8 +2469,23 @@
       <c r="W16">
         <v>0.3</v>
       </c>
+      <c r="X16">
+        <v>2.98</v>
+      </c>
+      <c r="Y16">
+        <v>175.49</v>
+      </c>
+      <c r="Z16">
+        <v>5.08</v>
+      </c>
       <c r="AC16" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -2226,22 +2493,25 @@
       <c r="AG16">
         <v>12.8749303817749</v>
       </c>
-      <c r="AH16" t="s">
-        <v>166</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300486</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>7.36</v>
@@ -2259,7 +2529,7 @@
         <v>93541.45</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -2300,8 +2570,23 @@
       <c r="W17">
         <v>-0.14</v>
       </c>
+      <c r="X17">
+        <v>16.39</v>
+      </c>
+      <c r="Y17">
+        <v>22.85</v>
+      </c>
+      <c r="Z17">
+        <v>18.64</v>
+      </c>
       <c r="AC17" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2309,22 +2594,25 @@
       <c r="AG17">
         <v>3.212542057037354</v>
       </c>
-      <c r="AH17" t="s">
-        <v>166</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300499</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>5.64</v>
@@ -2342,7 +2630,7 @@
         <v>213026.46</v>
       </c>
       <c r="J18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -2383,8 +2671,23 @@
       <c r="W18">
         <v>2.71</v>
       </c>
+      <c r="X18">
+        <v>20.02</v>
+      </c>
+      <c r="Y18">
+        <v>30.94</v>
+      </c>
+      <c r="Z18">
+        <v>21.48</v>
+      </c>
       <c r="AC18" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2392,22 +2695,25 @@
       <c r="AG18">
         <v>4.620124816894531</v>
       </c>
-      <c r="AH18" t="s">
-        <v>166</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300547</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>20</v>
@@ -2425,7 +2731,7 @@
         <v>185516.39</v>
       </c>
       <c r="J19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2466,8 +2772,23 @@
       <c r="W19">
         <v>-0.26</v>
       </c>
+      <c r="X19">
+        <v>8.91</v>
+      </c>
+      <c r="Y19">
+        <v>56.3</v>
+      </c>
+      <c r="Z19">
+        <v>16.13</v>
+      </c>
       <c r="AC19" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>1</v>
@@ -2475,22 +2796,25 @@
       <c r="AG19">
         <v>6.16287088394165</v>
       </c>
-      <c r="AH19" t="s">
-        <v>166</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300579</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>1.73</v>
@@ -2508,7 +2832,7 @@
         <v>90158.62</v>
       </c>
       <c r="J20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -2549,8 +2873,23 @@
       <c r="W20">
         <v>0.03</v>
       </c>
+      <c r="X20">
+        <v>1.39</v>
+      </c>
+      <c r="Y20">
+        <v>41.4</v>
+      </c>
+      <c r="Z20">
+        <v>2.07</v>
+      </c>
       <c r="AC20" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2558,22 +2897,25 @@
       <c r="AG20">
         <v>2.647615671157837</v>
       </c>
-      <c r="AH20" t="s">
-        <v>166</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300584</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>13.55</v>
@@ -2591,7 +2933,7 @@
         <v>102403.44</v>
       </c>
       <c r="J21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K21">
         <v>4</v>
@@ -2632,8 +2974,23 @@
       <c r="W21">
         <v>0.29</v>
       </c>
+      <c r="X21">
+        <v>-1.09</v>
+      </c>
+      <c r="Y21">
+        <v>61.38</v>
+      </c>
+      <c r="Z21">
+        <v>1.89</v>
+      </c>
       <c r="AC21" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2641,22 +2998,25 @@
       <c r="AG21">
         <v>2.231625556945801</v>
       </c>
-      <c r="AH21" t="s">
-        <v>166</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300593</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>12.31</v>
@@ -2674,7 +3034,7 @@
         <v>73078.84</v>
       </c>
       <c r="J22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K22">
         <v>6</v>
@@ -2715,8 +3075,23 @@
       <c r="W22">
         <v>-0.65</v>
       </c>
+      <c r="X22">
+        <v>0.5</v>
+      </c>
+      <c r="Y22">
+        <v>21.27</v>
+      </c>
+      <c r="Z22">
+        <v>7.97</v>
+      </c>
       <c r="AC22" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>1</v>
@@ -2724,22 +3099,25 @@
       <c r="AG22">
         <v>3.854843616485596</v>
       </c>
-      <c r="AH22" t="s">
-        <v>166</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300600</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-0.8</v>
@@ -2757,7 +3135,7 @@
         <v>42621.46</v>
       </c>
       <c r="J23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K23">
         <v>13</v>
@@ -2798,8 +3176,23 @@
       <c r="W23">
         <v>1.51</v>
       </c>
+      <c r="X23">
+        <v>6.33</v>
+      </c>
+      <c r="Y23">
+        <v>23.38</v>
+      </c>
+      <c r="Z23">
+        <v>10.34</v>
+      </c>
       <c r="AC23" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2807,22 +3200,25 @@
       <c r="AG23">
         <v>8.924015998840332</v>
       </c>
-      <c r="AH23" t="s">
-        <v>166</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300609</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>4.08</v>
@@ -2840,7 +3236,7 @@
         <v>74136.06</v>
       </c>
       <c r="J24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K24">
         <v>13</v>
@@ -2881,8 +3277,23 @@
       <c r="W24">
         <v>-0.54</v>
       </c>
+      <c r="X24">
+        <v>13.41</v>
+      </c>
+      <c r="Y24">
+        <v>63.3</v>
+      </c>
+      <c r="Z24">
+        <v>19.32</v>
+      </c>
       <c r="AC24" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2890,22 +3301,25 @@
       <c r="AG24">
         <v>4.744511604309082</v>
       </c>
-      <c r="AH24" t="s">
-        <v>166</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300620</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-2.1</v>
@@ -2923,7 +3337,7 @@
         <v>251220.1</v>
       </c>
       <c r="J25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K25">
         <v>4</v>
@@ -2964,8 +3378,23 @@
       <c r="W25">
         <v>-0.13</v>
       </c>
+      <c r="X25">
+        <v>18.29</v>
+      </c>
+      <c r="Y25">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="Z25">
+        <v>25.56</v>
+      </c>
       <c r="AC25" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2973,22 +3402,25 @@
       <c r="AG25">
         <v>-0.1366447806358337</v>
       </c>
-      <c r="AH25" t="s">
-        <v>166</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300637</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>6.02</v>
@@ -3006,7 +3438,7 @@
         <v>72478.23</v>
       </c>
       <c r="J26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -3047,8 +3479,23 @@
       <c r="W26">
         <v>1.45</v>
       </c>
+      <c r="X26">
+        <v>6.23</v>
+      </c>
+      <c r="Y26">
+        <v>18.18</v>
+      </c>
+      <c r="Z26">
+        <v>15.94</v>
+      </c>
       <c r="AC26" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>1</v>
@@ -3056,22 +3503,25 @@
       <c r="AG26">
         <v>16.8554515838623</v>
       </c>
-      <c r="AH26" t="s">
-        <v>167</v>
+      <c r="AH26">
+        <v>1</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300648</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-1.48</v>
@@ -3089,7 +3539,7 @@
         <v>37500.76</v>
       </c>
       <c r="J27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K27">
         <v>12</v>
@@ -3130,8 +3580,23 @@
       <c r="W27">
         <v>0.57</v>
       </c>
+      <c r="X27">
+        <v>2.11</v>
+      </c>
+      <c r="Y27">
+        <v>59.8</v>
+      </c>
+      <c r="Z27">
+        <v>4.55</v>
+      </c>
       <c r="AC27" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>1</v>
@@ -3139,22 +3604,25 @@
       <c r="AG27">
         <v>11.13022232055664</v>
       </c>
-      <c r="AH27" t="s">
-        <v>166</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300671</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>1.28</v>
@@ -3172,7 +3640,7 @@
         <v>67203.03</v>
       </c>
       <c r="J28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3213,8 +3681,23 @@
       <c r="W28">
         <v>-0.46</v>
       </c>
+      <c r="X28">
+        <v>1.02</v>
+      </c>
+      <c r="Y28">
+        <v>42.2</v>
+      </c>
+      <c r="Z28">
+        <v>2.58</v>
+      </c>
       <c r="AC28" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3222,22 +3705,25 @@
       <c r="AG28">
         <v>14.21448516845703</v>
       </c>
-      <c r="AH28" t="s">
-        <v>166</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300683</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>7.17</v>
@@ -3255,7 +3741,7 @@
         <v>53827.04</v>
       </c>
       <c r="J29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K29">
         <v>20</v>
@@ -3296,8 +3782,23 @@
       <c r="W29">
         <v>0.54</v>
       </c>
+      <c r="X29">
+        <v>2.87</v>
+      </c>
+      <c r="Y29">
+        <v>59</v>
+      </c>
+      <c r="Z29">
+        <v>6.1</v>
+      </c>
       <c r="AC29" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3305,22 +3806,25 @@
       <c r="AG29">
         <v>2.269919872283936</v>
       </c>
-      <c r="AH29" t="s">
-        <v>166</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300684</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>6.4</v>
@@ -3338,7 +3842,7 @@
         <v>124600.99</v>
       </c>
       <c r="J30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K30">
         <v>13</v>
@@ -3379,8 +3883,23 @@
       <c r="W30">
         <v>0.17</v>
       </c>
+      <c r="X30">
+        <v>8.74</v>
+      </c>
+      <c r="Y30">
+        <v>38.38</v>
+      </c>
+      <c r="Z30">
+        <v>13.18</v>
+      </c>
       <c r="AC30" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3388,22 +3907,25 @@
       <c r="AG30">
         <v>5.600600719451904</v>
       </c>
-      <c r="AH30" t="s">
-        <v>166</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300690</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>13.63</v>
@@ -3421,7 +3943,7 @@
         <v>145142.07</v>
       </c>
       <c r="J31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K31">
         <v>5</v>
@@ -3462,8 +3984,23 @@
       <c r="W31">
         <v>0.16</v>
       </c>
+      <c r="X31">
+        <v>6.98</v>
+      </c>
+      <c r="Y31">
+        <v>44.08</v>
+      </c>
+      <c r="Z31">
+        <v>15.73</v>
+      </c>
       <c r="AC31" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3471,22 +4008,25 @@
       <c r="AG31">
         <v>-0.7116341590881348</v>
       </c>
-      <c r="AH31" t="s">
-        <v>166</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300703</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-3.98</v>
@@ -3504,7 +4044,7 @@
         <v>54642.12</v>
       </c>
       <c r="J32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K32">
         <v>6</v>
@@ -3545,8 +4085,23 @@
       <c r="W32">
         <v>-0.59</v>
       </c>
+      <c r="X32">
+        <v>-1.08</v>
+      </c>
+      <c r="Y32">
+        <v>35.1</v>
+      </c>
+      <c r="Z32">
+        <v>3.2</v>
+      </c>
       <c r="AC32" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3554,22 +4109,25 @@
       <c r="AG32">
         <v>1.27476704120636</v>
       </c>
-      <c r="AH32" t="s">
-        <v>166</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300706</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>5.94</v>
@@ -3587,7 +4145,7 @@
         <v>102923.19</v>
       </c>
       <c r="J33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K33">
         <v>16</v>
@@ -3628,8 +4186,23 @@
       <c r="W33">
         <v>-2.07</v>
       </c>
+      <c r="X33">
+        <v>6.77</v>
+      </c>
+      <c r="Y33">
+        <v>52</v>
+      </c>
+      <c r="Z33">
+        <v>6.84</v>
+      </c>
       <c r="AC33" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3637,22 +4210,25 @@
       <c r="AG33">
         <v>16.6557502746582</v>
       </c>
-      <c r="AH33" t="s">
-        <v>166</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300724</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>10.64</v>
@@ -3670,7 +4246,7 @@
         <v>258541.36</v>
       </c>
       <c r="J34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -3711,8 +4287,23 @@
       <c r="W34">
         <v>2.01</v>
       </c>
+      <c r="X34">
+        <v>-0.09</v>
+      </c>
+      <c r="Y34">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="Z34">
+        <v>2.33</v>
+      </c>
       <c r="AC34" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3720,22 +4311,25 @@
       <c r="AG34">
         <v>5.954380035400391</v>
       </c>
-      <c r="AH34" t="s">
-        <v>166</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300727</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>11.35</v>
@@ -3753,7 +4347,7 @@
         <v>68102.52</v>
       </c>
       <c r="J35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -3794,8 +4388,23 @@
       <c r="W35">
         <v>-0.15</v>
       </c>
+      <c r="X35">
+        <v>19.99</v>
+      </c>
+      <c r="Y35">
+        <v>43.64</v>
+      </c>
+      <c r="Z35">
+        <v>20.59</v>
+      </c>
       <c r="AC35" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3803,22 +4412,25 @@
       <c r="AG35">
         <v>9.509265899658203</v>
       </c>
-      <c r="AH35" t="s">
-        <v>166</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300731</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>5.12</v>
@@ -3836,7 +4448,7 @@
         <v>128213.2</v>
       </c>
       <c r="J36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K36">
         <v>11</v>
@@ -3877,8 +4489,23 @@
       <c r="W36">
         <v>0.16</v>
       </c>
+      <c r="X36">
+        <v>15.06</v>
+      </c>
+      <c r="Y36">
+        <v>61.5</v>
+      </c>
+      <c r="Z36">
+        <v>20.31</v>
+      </c>
       <c r="AC36" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3886,22 +4513,25 @@
       <c r="AG36">
         <v>1.206974267959595</v>
       </c>
-      <c r="AH36" t="s">
-        <v>166</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300753</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-1.36</v>
@@ -3919,7 +4549,7 @@
         <v>56846.51</v>
       </c>
       <c r="J37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -3960,8 +4590,23 @@
       <c r="W37">
         <v>-0.25</v>
       </c>
+      <c r="X37">
+        <v>-1.84</v>
+      </c>
+      <c r="Y37">
+        <v>36.12</v>
+      </c>
+      <c r="Z37">
+        <v>-0.25</v>
+      </c>
       <c r="AC37" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3969,22 +4614,25 @@
       <c r="AG37">
         <v>2.805992364883423</v>
       </c>
-      <c r="AH37" t="s">
-        <v>166</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300803</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>20</v>
@@ -4002,7 +4650,7 @@
         <v>904056.01</v>
       </c>
       <c r="J38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K38">
         <v>4</v>
@@ -4043,8 +4691,23 @@
       <c r="W38">
         <v>0.9</v>
       </c>
+      <c r="X38">
+        <v>14.64</v>
+      </c>
+      <c r="Y38">
+        <v>131.84</v>
+      </c>
+      <c r="Z38">
+        <v>20</v>
+      </c>
       <c r="AC38" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>1</v>
@@ -4052,22 +4715,25 @@
       <c r="AG38">
         <v>9.958130836486816</v>
       </c>
-      <c r="AH38" t="s">
-        <v>166</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300806</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>1.84</v>
@@ -4085,7 +4751,7 @@
         <v>37857.95</v>
       </c>
       <c r="J39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -4126,8 +4792,23 @@
       <c r="W39">
         <v>-0.7</v>
       </c>
+      <c r="X39">
+        <v>9.93</v>
+      </c>
+      <c r="Y39">
+        <v>25</v>
+      </c>
+      <c r="Z39">
+        <v>15.79</v>
+      </c>
       <c r="AC39" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4135,22 +4816,25 @@
       <c r="AG39">
         <v>13.85677623748779</v>
       </c>
-      <c r="AH39" t="s">
-        <v>166</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300815</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>3.05</v>
@@ -4168,7 +4852,7 @@
         <v>123627.24</v>
       </c>
       <c r="J40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K40">
         <v>4</v>
@@ -4209,8 +4893,23 @@
       <c r="W40">
         <v>-0.22</v>
       </c>
+      <c r="X40">
+        <v>1.64</v>
+      </c>
+      <c r="Y40">
+        <v>32.94</v>
+      </c>
+      <c r="Z40">
+        <v>7.19</v>
+      </c>
       <c r="AC40" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4218,22 +4917,25 @@
       <c r="AG40">
         <v>-3.582348346710205</v>
       </c>
-      <c r="AH40" t="s">
-        <v>166</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300816</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-0.07000000000000001</v>
@@ -4251,7 +4953,7 @@
         <v>24207.89</v>
       </c>
       <c r="J41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -4292,8 +4994,23 @@
       <c r="W41">
         <v>-0.14</v>
       </c>
+      <c r="X41">
+        <v>-0.7</v>
+      </c>
+      <c r="Y41">
+        <v>44.44</v>
+      </c>
+      <c r="Z41">
+        <v>5.43</v>
+      </c>
       <c r="AC41" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4301,22 +5018,25 @@
       <c r="AG41">
         <v>2.178775072097778</v>
       </c>
-      <c r="AH41" t="s">
-        <v>166</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300843</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>10.73</v>
@@ -4334,7 +5054,7 @@
         <v>101990.9</v>
       </c>
       <c r="J42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -4375,8 +5095,23 @@
       <c r="W42">
         <v>0.61</v>
       </c>
+      <c r="X42">
+        <v>15.76</v>
+      </c>
+      <c r="Y42">
+        <v>52.6</v>
+      </c>
+      <c r="Z42">
+        <v>17.75</v>
+      </c>
       <c r="AC42" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4384,22 +5119,25 @@
       <c r="AG42">
         <v>6.854687213897705</v>
       </c>
-      <c r="AH42" t="s">
-        <v>166</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300870</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>17.37</v>
@@ -4417,7 +5155,7 @@
         <v>239517.88</v>
       </c>
       <c r="J43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -4458,8 +5196,23 @@
       <c r="W43">
         <v>0.43</v>
       </c>
+      <c r="X43">
+        <v>0.2</v>
+      </c>
+      <c r="Y43">
+        <v>270</v>
+      </c>
+      <c r="Z43">
+        <v>10.48</v>
+      </c>
       <c r="AC43" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD43">
+        <v>1</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>1</v>
@@ -4467,22 +5220,25 @@
       <c r="AG43">
         <v>6.682162761688232</v>
       </c>
-      <c r="AH43" t="s">
-        <v>167</v>
+      <c r="AH43">
+        <v>1</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300902</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>8.91</v>
@@ -4500,7 +5256,7 @@
         <v>42865.54</v>
       </c>
       <c r="J44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -4541,8 +5297,23 @@
       <c r="W44">
         <v>-0.03</v>
       </c>
+      <c r="X44">
+        <v>1.51</v>
+      </c>
+      <c r="Y44">
+        <v>30.87</v>
+      </c>
+      <c r="Z44">
+        <v>5.65</v>
+      </c>
       <c r="AC44" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4550,22 +5321,25 @@
       <c r="AG44">
         <v>3.623071193695068</v>
       </c>
-      <c r="AH44" t="s">
-        <v>166</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300907</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>5.07</v>
@@ -4583,7 +5357,7 @@
         <v>47176.51</v>
       </c>
       <c r="J45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -4624,8 +5398,23 @@
       <c r="W45">
         <v>0.75</v>
       </c>
+      <c r="X45">
+        <v>-2.15</v>
+      </c>
+      <c r="Y45">
+        <v>38.73</v>
+      </c>
+      <c r="Z45">
+        <v>0.96</v>
+      </c>
       <c r="AC45" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4633,22 +5422,25 @@
       <c r="AG45">
         <v>-0.04581578820943832</v>
       </c>
-      <c r="AH45" t="s">
-        <v>166</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300969</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>5.67</v>
@@ -4666,7 +5458,7 @@
         <v>35054.35</v>
       </c>
       <c r="J46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4707,8 +5499,23 @@
       <c r="W46">
         <v>-0.28</v>
       </c>
+      <c r="X46">
+        <v>0.54</v>
+      </c>
+      <c r="Y46">
+        <v>93.98999999999999</v>
+      </c>
+      <c r="Z46">
+        <v>3.07</v>
+      </c>
       <c r="AC46" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4716,22 +5523,25 @@
       <c r="AG46">
         <v>2.984157562255859</v>
       </c>
-      <c r="AH46" t="s">
-        <v>166</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300993</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>0.05</v>
@@ -4749,7 +5559,7 @@
         <v>41281.52</v>
       </c>
       <c r="J47" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K47">
         <v>8</v>
@@ -4790,8 +5600,23 @@
       <c r="W47">
         <v>0.33</v>
       </c>
+      <c r="X47">
+        <v>-2.01</v>
+      </c>
+      <c r="Y47">
+        <v>18.75</v>
+      </c>
+      <c r="Z47">
+        <v>2.4</v>
+      </c>
       <c r="AC47" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4799,22 +5624,25 @@
       <c r="AG47">
         <v>-3.525660037994385</v>
       </c>
-      <c r="AH47" t="s">
-        <v>166</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>301005</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>5.91</v>
@@ -4832,7 +5660,7 @@
         <v>122250.53</v>
       </c>
       <c r="J48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K48">
         <v>9</v>
@@ -4873,8 +5701,23 @@
       <c r="W48">
         <v>0.25</v>
       </c>
+      <c r="X48">
+        <v>-2.01</v>
+      </c>
+      <c r="Y48">
+        <v>54.36</v>
+      </c>
+      <c r="Z48">
+        <v>-0.51</v>
+      </c>
       <c r="AC48" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4882,22 +5725,25 @@
       <c r="AG48">
         <v>0.9756113886833191</v>
       </c>
-      <c r="AH48" t="s">
-        <v>166</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>301007</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-0.17</v>
@@ -4915,7 +5761,7 @@
         <v>31168.12</v>
       </c>
       <c r="J49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -4956,8 +5802,23 @@
       <c r="W49">
         <v>-0.13</v>
       </c>
+      <c r="X49">
+        <v>3.72</v>
+      </c>
+      <c r="Y49">
+        <v>45.66</v>
+      </c>
+      <c r="Z49">
+        <v>8.9</v>
+      </c>
       <c r="AC49" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4965,22 +5826,25 @@
       <c r="AG49">
         <v>63.37567901611328</v>
       </c>
-      <c r="AH49" t="s">
-        <v>166</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301018</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>9.98</v>
@@ -4998,7 +5862,7 @@
         <v>144032.92</v>
       </c>
       <c r="J50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K50">
         <v>3</v>
@@ -5039,8 +5903,23 @@
       <c r="W50">
         <v>-5.61</v>
       </c>
+      <c r="X50">
+        <v>14.49</v>
+      </c>
+      <c r="Y50">
+        <v>74.72</v>
+      </c>
+      <c r="Z50">
+        <v>17.15</v>
+      </c>
       <c r="AC50" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD50">
+        <v>1</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
       </c>
       <c r="AF50">
         <v>1</v>
@@ -5048,22 +5927,25 @@
       <c r="AG50">
         <v>29.38970375061035</v>
       </c>
-      <c r="AH50" t="s">
-        <v>166</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301021</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>7.25</v>
@@ -5081,7 +5963,7 @@
         <v>56964.83</v>
       </c>
       <c r="J51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K51">
         <v>4</v>
@@ -5122,8 +6004,23 @@
       <c r="W51">
         <v>0.31</v>
       </c>
+      <c r="X51">
+        <v>2.41</v>
+      </c>
+      <c r="Y51">
+        <v>38.69</v>
+      </c>
+      <c r="Z51">
+        <v>4.68</v>
+      </c>
       <c r="AC51" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5131,22 +6028,25 @@
       <c r="AG51">
         <v>1.406103730201721</v>
       </c>
-      <c r="AH51" t="s">
-        <v>166</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301022</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>8.73</v>
@@ -5164,7 +6064,7 @@
         <v>40433.41</v>
       </c>
       <c r="J52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K52">
         <v>8</v>
@@ -5205,8 +6105,23 @@
       <c r="W52">
         <v>1.01</v>
       </c>
+      <c r="X52">
+        <v>-1.88</v>
+      </c>
+      <c r="Y52">
+        <v>47</v>
+      </c>
+      <c r="Z52">
+        <v>3.71</v>
+      </c>
       <c r="AC52" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5214,22 +6129,25 @@
       <c r="AG52">
         <v>8.094070434570312</v>
       </c>
-      <c r="AH52" t="s">
-        <v>166</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301038</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-1.56</v>
@@ -5247,7 +6165,7 @@
         <v>64239.55</v>
       </c>
       <c r="J53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K53">
         <v>14</v>
@@ -5288,8 +6206,23 @@
       <c r="W53">
         <v>0.64</v>
       </c>
+      <c r="X53">
+        <v>-0.28</v>
+      </c>
+      <c r="Y53">
+        <v>37.78</v>
+      </c>
+      <c r="Z53">
+        <v>4.74</v>
+      </c>
       <c r="AC53" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5297,22 +6230,25 @@
       <c r="AG53">
         <v>24.13141632080078</v>
       </c>
-      <c r="AH53" t="s">
-        <v>166</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301069</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>6.69</v>
@@ -5330,7 +6266,7 @@
         <v>94013.55</v>
       </c>
       <c r="J54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K54">
         <v>8</v>
@@ -5371,8 +6307,23 @@
       <c r="W54">
         <v>0.79</v>
       </c>
+      <c r="X54">
+        <v>6.27</v>
+      </c>
+      <c r="Y54">
+        <v>26.58</v>
+      </c>
+      <c r="Z54">
+        <v>11.92</v>
+      </c>
       <c r="AC54" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5380,22 +6331,25 @@
       <c r="AG54">
         <v>24.70683097839355</v>
       </c>
-      <c r="AH54" t="s">
-        <v>166</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301076</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>11.65</v>
@@ -5413,7 +6367,7 @@
         <v>170475.3</v>
       </c>
       <c r="J55" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K55">
         <v>8</v>
@@ -5454,8 +6408,23 @@
       <c r="W55">
         <v>3.18</v>
       </c>
+      <c r="X55">
+        <v>10.1</v>
+      </c>
+      <c r="Y55">
+        <v>63.49</v>
+      </c>
+      <c r="Z55">
+        <v>9.83</v>
+      </c>
       <c r="AC55" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5463,22 +6432,25 @@
       <c r="AG55">
         <v>2.921779870986938</v>
       </c>
-      <c r="AH55" t="s">
-        <v>166</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301095</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>1.91</v>
@@ -5496,7 +6468,7 @@
         <v>97957.38</v>
       </c>
       <c r="J56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K56">
         <v>13</v>
@@ -5537,8 +6509,23 @@
       <c r="W56">
         <v>0.29</v>
       </c>
+      <c r="X56">
+        <v>13.86</v>
+      </c>
+      <c r="Y56">
+        <v>97.2</v>
+      </c>
+      <c r="Z56">
+        <v>14.39</v>
+      </c>
       <c r="AC56" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5546,22 +6533,25 @@
       <c r="AG56">
         <v>-0.2521012723445892</v>
       </c>
-      <c r="AH56" t="s">
-        <v>166</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301117</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-6.06</v>
@@ -5579,7 +6569,7 @@
         <v>117533.96</v>
       </c>
       <c r="J57" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K57">
         <v>8</v>
@@ -5620,8 +6610,23 @@
       <c r="W57">
         <v>0.09</v>
       </c>
+      <c r="X57">
+        <v>-7.7</v>
+      </c>
+      <c r="Y57">
+        <v>38.85</v>
+      </c>
+      <c r="Z57">
+        <v>-2.92</v>
+      </c>
       <c r="AC57" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>1</v>
@@ -5629,22 +6634,25 @@
       <c r="AG57">
         <v>9.465272903442383</v>
       </c>
-      <c r="AH57" t="s">
-        <v>166</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301120</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>1.55</v>
@@ -5662,7 +6670,7 @@
         <v>52710.09</v>
       </c>
       <c r="J58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K58">
         <v>9</v>
@@ -5703,8 +6711,23 @@
       <c r="W58">
         <v>0.66</v>
       </c>
+      <c r="X58">
+        <v>3.51</v>
+      </c>
+      <c r="Y58">
+        <v>15.8</v>
+      </c>
+      <c r="Z58">
+        <v>5.12</v>
+      </c>
       <c r="AC58" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5712,22 +6735,25 @@
       <c r="AG58">
         <v>4.001636981964111</v>
       </c>
-      <c r="AH58" t="s">
-        <v>166</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301123</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>15.19</v>
@@ -5745,7 +6771,7 @@
         <v>81820.09</v>
       </c>
       <c r="J59" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K59">
         <v>9</v>
@@ -5786,8 +6812,23 @@
       <c r="W59">
         <v>-0.38</v>
       </c>
+      <c r="X59">
+        <v>19.99</v>
+      </c>
+      <c r="Y59">
+        <v>47.29</v>
+      </c>
+      <c r="Z59">
+        <v>25.01</v>
+      </c>
       <c r="AC59" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5795,22 +6836,25 @@
       <c r="AG59">
         <v>18.29269027709961</v>
       </c>
-      <c r="AH59" t="s">
-        <v>166</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301128</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>12.59</v>
@@ -5828,7 +6872,7 @@
         <v>79116.12</v>
       </c>
       <c r="J60" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K60">
         <v>3</v>
@@ -5869,8 +6913,23 @@
       <c r="W60">
         <v>-0.61</v>
       </c>
+      <c r="X60">
+        <v>20</v>
+      </c>
+      <c r="Y60">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="Z60">
+        <v>20.16</v>
+      </c>
       <c r="AC60" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5878,22 +6937,25 @@
       <c r="AG60">
         <v>0.05166342481970787</v>
       </c>
-      <c r="AH60" t="s">
-        <v>166</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301132</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>7.56</v>
@@ -5911,7 +6973,7 @@
         <v>59867.44</v>
       </c>
       <c r="J61" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K61">
         <v>5</v>
@@ -5952,8 +7014,23 @@
       <c r="W61">
         <v>0.13</v>
       </c>
+      <c r="X61">
+        <v>0.8</v>
+      </c>
+      <c r="Y61">
+        <v>43.58</v>
+      </c>
+      <c r="Z61">
+        <v>3.2</v>
+      </c>
       <c r="AC61" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -5961,22 +7038,25 @@
       <c r="AG61">
         <v>3.898664951324463</v>
       </c>
-      <c r="AH61" t="s">
-        <v>166</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301150</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>2.93</v>
@@ -5994,7 +7074,7 @@
         <v>42472.97</v>
       </c>
       <c r="J62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K62">
         <v>3</v>
@@ -6035,8 +7115,23 @@
       <c r="W62">
         <v>-0.05</v>
       </c>
+      <c r="X62">
+        <v>-2.14</v>
+      </c>
+      <c r="Y62">
+        <v>32.27</v>
+      </c>
+      <c r="Z62">
+        <v>0.97</v>
+      </c>
       <c r="AC62" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6044,22 +7139,25 @@
       <c r="AG62">
         <v>0.8394266963005066</v>
       </c>
-      <c r="AH62" t="s">
-        <v>166</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301161</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>2.47</v>
@@ -6077,7 +7175,7 @@
         <v>27428.61</v>
       </c>
       <c r="J63" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K63">
         <v>10</v>
@@ -6118,8 +7216,23 @@
       <c r="W63">
         <v>1.76</v>
       </c>
+      <c r="X63">
+        <v>17.3</v>
+      </c>
+      <c r="Y63">
+        <v>45.39</v>
+      </c>
+      <c r="Z63">
+        <v>17.77</v>
+      </c>
       <c r="AC63" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6127,22 +7240,25 @@
       <c r="AG63">
         <v>4.645393371582031</v>
       </c>
-      <c r="AH63" t="s">
-        <v>166</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301181</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>6.04</v>
@@ -6160,7 +7276,7 @@
         <v>45039.39</v>
       </c>
       <c r="J64" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K64">
         <v>3</v>
@@ -6201,8 +7317,23 @@
       <c r="W64">
         <v>-0.37</v>
       </c>
+      <c r="X64">
+        <v>2.99</v>
+      </c>
+      <c r="Y64">
+        <v>35.89</v>
+      </c>
+      <c r="Z64">
+        <v>5.34</v>
+      </c>
       <c r="AC64" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6210,22 +7341,25 @@
       <c r="AG64">
         <v>5.571062564849854</v>
       </c>
-      <c r="AH64" t="s">
-        <v>166</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301196</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>6.64</v>
@@ -6243,7 +7377,7 @@
         <v>81339.62</v>
       </c>
       <c r="J65" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K65">
         <v>3</v>
@@ -6284,8 +7418,23 @@
       <c r="W65">
         <v>0.6</v>
       </c>
+      <c r="X65">
+        <v>-4.86</v>
+      </c>
+      <c r="Y65">
+        <v>106.23</v>
+      </c>
+      <c r="Z65">
+        <v>1.44</v>
+      </c>
       <c r="AC65" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6293,22 +7442,25 @@
       <c r="AG65">
         <v>3.493566513061523</v>
       </c>
-      <c r="AH65" t="s">
-        <v>166</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301200</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>3.23</v>
@@ -6326,7 +7478,7 @@
         <v>54872.19</v>
       </c>
       <c r="J66" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K66">
         <v>17</v>
@@ -6367,8 +7519,23 @@
       <c r="W66">
         <v>0.48</v>
       </c>
+      <c r="X66">
+        <v>-3.52</v>
+      </c>
+      <c r="Y66">
+        <v>94.78</v>
+      </c>
+      <c r="Z66">
+        <v>1.47</v>
+      </c>
       <c r="AC66" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6376,22 +7543,25 @@
       <c r="AG66">
         <v>9.139456748962402</v>
       </c>
-      <c r="AH66" t="s">
-        <v>166</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301217</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>14.74</v>
@@ -6409,7 +7579,7 @@
         <v>240052.74</v>
       </c>
       <c r="J67" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K67">
         <v>30</v>
@@ -6450,8 +7620,23 @@
       <c r="W67">
         <v>3.47</v>
       </c>
+      <c r="X67">
+        <v>3.86</v>
+      </c>
+      <c r="Y67">
+        <v>34.8</v>
+      </c>
+      <c r="Z67">
+        <v>8.01</v>
+      </c>
       <c r="AC67" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="AD67">
+        <v>1</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
       </c>
       <c r="AF67">
         <v>1</v>
@@ -6459,22 +7644,25 @@
       <c r="AG67">
         <v>2.448494434356689</v>
       </c>
-      <c r="AH67" t="s">
-        <v>167</v>
+      <c r="AH67">
+        <v>1</v>
+      </c>
+      <c r="AI67">
+        <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301251</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>5.79</v>
@@ -6492,7 +7680,7 @@
         <v>90471.02</v>
       </c>
       <c r="J68" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K68">
         <v>8</v>
@@ -6533,8 +7721,23 @@
       <c r="W68">
         <v>0.48</v>
       </c>
+      <c r="X68">
+        <v>-0.3</v>
+      </c>
+      <c r="Y68">
+        <v>65.18000000000001</v>
+      </c>
+      <c r="Z68">
+        <v>6.23</v>
+      </c>
       <c r="AC68" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6542,22 +7745,25 @@
       <c r="AG68">
         <v>-1.631765246391296</v>
       </c>
-      <c r="AH68" t="s">
-        <v>166</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301316</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>0.4</v>
@@ -6575,7 +7781,7 @@
         <v>92848.5</v>
       </c>
       <c r="J69" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -6616,8 +7822,23 @@
       <c r="W69">
         <v>-0.19</v>
       </c>
+      <c r="X69">
+        <v>-2.36</v>
+      </c>
+      <c r="Y69">
+        <v>53.26</v>
+      </c>
+      <c r="Z69">
+        <v>0.34</v>
+      </c>
       <c r="AC69" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6625,22 +7846,25 @@
       <c r="AG69">
         <v>8.896696090698242</v>
       </c>
-      <c r="AH69" t="s">
-        <v>166</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301323</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>8.84</v>
@@ -6658,7 +7882,7 @@
         <v>44570.03</v>
       </c>
       <c r="J70" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K70">
         <v>4</v>
@@ -6699,8 +7923,23 @@
       <c r="W70">
         <v>-0.79</v>
       </c>
+      <c r="X70">
+        <v>-0.26</v>
+      </c>
+      <c r="Y70">
+        <v>62.6</v>
+      </c>
+      <c r="Z70">
+        <v>1.66</v>
+      </c>
       <c r="AC70" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6708,22 +7947,25 @@
       <c r="AG70">
         <v>-2.03372597694397</v>
       </c>
-      <c r="AH70" t="s">
-        <v>166</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301326</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>14.02</v>
@@ -6741,7 +7983,7 @@
         <v>38964.47</v>
       </c>
       <c r="J71" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K71">
         <v>6</v>
@@ -6782,8 +8024,23 @@
       <c r="W71">
         <v>1.39</v>
       </c>
+      <c r="X71">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="Y71">
+        <v>117.08</v>
+      </c>
+      <c r="Z71">
+        <v>11.4</v>
+      </c>
       <c r="AC71" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6791,22 +8048,25 @@
       <c r="AG71">
         <v>1.519427299499512</v>
       </c>
-      <c r="AH71" t="s">
-        <v>166</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301357</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>-0.07000000000000001</v>
@@ -6824,7 +8084,7 @@
         <v>90264.71000000001</v>
       </c>
       <c r="J72" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K72">
         <v>14</v>
@@ -6865,8 +8125,23 @@
       <c r="W72">
         <v>-0.31</v>
       </c>
+      <c r="X72">
+        <v>15.02</v>
+      </c>
+      <c r="Y72">
+        <v>175.31</v>
+      </c>
+      <c r="Z72">
+        <v>19.26</v>
+      </c>
       <c r="AC72" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>1</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6874,22 +8149,25 @@
       <c r="AG72">
         <v>-9.08543872833252</v>
       </c>
-      <c r="AH72" t="s">
-        <v>166</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301377</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>6.16</v>
@@ -6907,7 +8185,7 @@
         <v>32969.52</v>
       </c>
       <c r="J73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K73">
         <v>5</v>
@@ -6948,8 +8226,23 @@
       <c r="W73">
         <v>-2.07</v>
       </c>
+      <c r="X73">
+        <v>0.92</v>
+      </c>
+      <c r="Y73">
+        <v>63.9</v>
+      </c>
+      <c r="Z73">
+        <v>2.11</v>
+      </c>
       <c r="AC73" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>1</v>
@@ -6957,22 +8250,25 @@
       <c r="AG73">
         <v>73.82404327392578</v>
       </c>
-      <c r="AH73" t="s">
-        <v>166</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301389</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>5.62</v>
@@ -6990,7 +8286,7 @@
         <v>113213.17</v>
       </c>
       <c r="J74" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K74">
         <v>29</v>
@@ -7031,8 +8327,23 @@
       <c r="W74">
         <v>0.24</v>
       </c>
+      <c r="X74">
+        <v>-1.44</v>
+      </c>
+      <c r="Y74">
+        <v>54.88</v>
+      </c>
+      <c r="Z74">
+        <v>5.82</v>
+      </c>
       <c r="AC74" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7040,22 +8351,25 @@
       <c r="AG74">
         <v>-8.886629104614258</v>
       </c>
-      <c r="AH74" t="s">
-        <v>166</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>301397</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>17.62</v>
@@ -7073,7 +8387,7 @@
         <v>83801.22</v>
       </c>
       <c r="J75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K75">
         <v>7</v>
@@ -7114,8 +8428,23 @@
       <c r="W75">
         <v>-0.04</v>
       </c>
+      <c r="X75">
+        <v>5.59</v>
+      </c>
+      <c r="Y75">
+        <v>50.68</v>
+      </c>
+      <c r="Z75">
+        <v>7.24</v>
+      </c>
       <c r="AC75" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD75">
+        <v>1</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
       </c>
       <c r="AF75">
         <v>1</v>
@@ -7123,22 +8452,25 @@
       <c r="AG75">
         <v>41.05896759033203</v>
       </c>
-      <c r="AH75" t="s">
-        <v>166</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>301398</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>8.390000000000001</v>
@@ -7156,7 +8488,7 @@
         <v>46895.99</v>
       </c>
       <c r="J76" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -7197,8 +8529,23 @@
       <c r="W76">
         <v>-0.08</v>
       </c>
+      <c r="X76">
+        <v>7.73</v>
+      </c>
+      <c r="Y76">
+        <v>57.36</v>
+      </c>
+      <c r="Z76">
+        <v>17.4</v>
+      </c>
       <c r="AC76" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7206,22 +8553,25 @@
       <c r="AG76">
         <v>2.850626707077026</v>
       </c>
-      <c r="AH76" t="s">
-        <v>166</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>301486</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>2.31</v>
@@ -7239,7 +8589,7 @@
         <v>84467.08</v>
       </c>
       <c r="J77" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K77">
         <v>3</v>
@@ -7280,8 +8630,23 @@
       <c r="W77">
         <v>-0.3</v>
       </c>
+      <c r="X77">
+        <v>6.2</v>
+      </c>
+      <c r="Y77">
+        <v>96.93000000000001</v>
+      </c>
+      <c r="Z77">
+        <v>8.16</v>
+      </c>
       <c r="AC77" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>1</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7289,22 +8654,25 @@
       <c r="AG77">
         <v>7.063683032989502</v>
       </c>
-      <c r="AH77" t="s">
-        <v>166</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>301489</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>4.28</v>
@@ -7322,7 +8690,7 @@
         <v>115022.72</v>
       </c>
       <c r="J78" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K78">
         <v>12</v>
@@ -7363,8 +8731,23 @@
       <c r="W78">
         <v>0.12</v>
       </c>
+      <c r="X78">
+        <v>3.75</v>
+      </c>
+      <c r="Y78">
+        <v>174.2</v>
+      </c>
+      <c r="Z78">
+        <v>8.52</v>
+      </c>
       <c r="AC78" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>1</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7372,22 +8755,25 @@
       <c r="AG78">
         <v>4.230298519134521</v>
       </c>
-      <c r="AH78" t="s">
-        <v>166</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>301511</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>8.42</v>
@@ -7405,7 +8791,7 @@
         <v>205985.8</v>
       </c>
       <c r="J79" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K79">
         <v>39</v>
@@ -7446,8 +8832,23 @@
       <c r="W79">
         <v>0.19</v>
       </c>
+      <c r="X79">
+        <v>-2.31</v>
+      </c>
+      <c r="Y79">
+        <v>41.3</v>
+      </c>
+      <c r="Z79">
+        <v>2.13</v>
+      </c>
       <c r="AC79" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>1</v>
@@ -7455,22 +8856,25 @@
       <c r="AG79">
         <v>5.531199932098389</v>
       </c>
-      <c r="AH79" t="s">
-        <v>166</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>301526</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>19.92</v>
@@ -7488,7 +8892,7 @@
         <v>159855.76</v>
       </c>
       <c r="J80" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K80">
         <v>7</v>
@@ -7529,8 +8933,23 @@
       <c r="W80">
         <v>0.65</v>
       </c>
+      <c r="X80">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="Y80">
+        <v>7.5</v>
+      </c>
+      <c r="Z80">
+        <v>17.55</v>
+      </c>
       <c r="AC80" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>1</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7538,22 +8957,25 @@
       <c r="AG80">
         <v>12.33572483062744</v>
       </c>
-      <c r="AH80" t="s">
-        <v>166</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>688039</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>7.73</v>
@@ -7571,7 +8993,7 @@
         <v>35046.21</v>
       </c>
       <c r="J81" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -7612,8 +9034,23 @@
       <c r="W81">
         <v>-0.13</v>
       </c>
+      <c r="X81">
+        <v>-1.15</v>
+      </c>
+      <c r="Y81">
+        <v>53.36</v>
+      </c>
+      <c r="Z81">
+        <v>1</v>
+      </c>
       <c r="AC81" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7621,22 +9058,25 @@
       <c r="AG81">
         <v>5.248696327209473</v>
       </c>
-      <c r="AH81" t="s">
-        <v>166</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>688108</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>14.8</v>
@@ -7654,7 +9094,7 @@
         <v>194653.31</v>
       </c>
       <c r="J82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K82">
         <v>5</v>
@@ -7695,8 +9135,23 @@
       <c r="W82">
         <v>-0.16</v>
       </c>
+      <c r="X82">
+        <v>19.99</v>
+      </c>
+      <c r="Y82">
+        <v>41.48</v>
+      </c>
+      <c r="Z82">
+        <v>18.85</v>
+      </c>
       <c r="AC82" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>1</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7704,22 +9159,25 @@
       <c r="AG82">
         <v>4.691135406494141</v>
       </c>
-      <c r="AH82" t="s">
-        <v>166</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>688110</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>10.46</v>
@@ -7737,7 +9195,7 @@
         <v>346505.63</v>
       </c>
       <c r="J83" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K83">
         <v>14</v>
@@ -7778,8 +9236,23 @@
       <c r="W83">
         <v>0.23</v>
       </c>
+      <c r="X83">
+        <v>7.01</v>
+      </c>
+      <c r="Y83">
+        <v>106.2</v>
+      </c>
+      <c r="Z83">
+        <v>3.11</v>
+      </c>
       <c r="AC83" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7787,8 +9260,11 @@
       <c r="AG83">
         <v>0.9024049639701843</v>
       </c>
-      <c r="AH83" t="s">
-        <v>166</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
